--- a/xlsx/12.30优化前后跑分对比.xlsx
+++ b/xlsx/12.30优化前后跑分对比.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\lab219\2020OpenGL\optimize\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\lab219\2020OpenGL\notes\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364EBB01-B23A-4107-8571-C3D877F535D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EC8DE5-ADF9-45CA-AE76-849BA3A4ECB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12103" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -420,31 +420,31 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -729,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -748,118 +748,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="17"/>
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A2" s="14"/>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="13" t="s">
         <v>32</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="15" t="s">
+      <c r="I2" s="14"/>
+      <c r="J2" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="16" t="s">
+      <c r="K2" s="21"/>
+      <c r="L2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="16" t="s">
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="19" t="s">
+      <c r="Q2" s="16"/>
+      <c r="R2" s="13" t="s">
         <v>32</v>
       </c>
       <c r="S2" s="20"/>
       <c r="T2" s="20"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="15" t="s">
+      <c r="U2" s="14"/>
+      <c r="V2" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="15"/>
+      <c r="W2" s="21"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A3" s="14"/>
-      <c r="B3" s="16" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="16" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="19" t="s">
+      <c r="G3" s="14"/>
+      <c r="H3" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="21"/>
+      <c r="I3" s="14"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13" t="s">
+      <c r="M3" s="19"/>
+      <c r="N3" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="O3" s="13"/>
-      <c r="P3" s="16" t="s">
+      <c r="O3" s="19"/>
+      <c r="P3" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="19" t="s">
+      <c r="Q3" s="16"/>
+      <c r="R3" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="S3" s="21"/>
-      <c r="T3" s="19" t="s">
+      <c r="S3" s="14"/>
+      <c r="T3" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="U3" s="21"/>
+      <c r="U3" s="14"/>
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A4" s="14"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
@@ -928,7 +928,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A5" s="14"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
@@ -993,7 +993,7 @@
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A6" s="14"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1032,7 +1032,7 @@
       <c r="W6" s="9"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A7" s="14"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1071,7 +1071,7 @@
       <c r="W7" s="9"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A8" s="14"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
@@ -1110,7 +1110,7 @@
       <c r="W8" s="9"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A9" s="14"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1135,7 +1135,7 @@
       <c r="W9" s="9"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A10" s="14"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -1255,6 +1255,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:U2"/>
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="T3:U3"/>
     <mergeCell ref="P3:Q3"/>
@@ -1271,9 +1274,6 @@
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="L1:W1"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:U2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
